--- a/Castilleja.xlsx
+++ b/Castilleja.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katieschroeder/Documents/GitHub/castilleja-JCA-RMBL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F559B2F9-5D1F-C54B-AF37-0F7B8431E5C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF9FE5F-565D-154B-A67B-E02FFD0BE478}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9440" yWindow="2300" windowWidth="33880" windowHeight="21060" xr2:uid="{3904170A-507E-034C-9229-AAEA639AAA43}"/>
+    <workbookView xWindow="28780" yWindow="2300" windowWidth="14880" windowHeight="21060" activeTab="1" xr2:uid="{3904170A-507E-034C-9229-AAEA639AAA43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="fx group" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="78">
   <si>
     <t xml:space="preserve">Plot </t>
   </si>
@@ -203,6 +203,63 @@
   </si>
   <si>
     <t>forb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potentilla hippiana </t>
+  </si>
+  <si>
+    <t>Poa pratensis</t>
+  </si>
+  <si>
+    <t>shrub</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>legume</t>
+  </si>
+  <si>
+    <t>photosynthesis</t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>life_history</t>
+  </si>
+  <si>
+    <t>perennial</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>native</t>
+  </si>
+  <si>
+    <t>Taraxacum officinale</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>subshrub</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Helianthella quinquenervis</t>
   </si>
 </sst>
 </file>
@@ -592,7 +649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD015E42-4850-FB4C-A7A8-AD8EFB364365}">
   <dimension ref="A1:AZ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
@@ -6410,167 +6467,560 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE3DF3E-58F7-5241-B886-7CF95661B815}">
-  <dimension ref="A1:AT2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EE5741-36CC-AF49-BF4F-21671528DD91}">
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
